--- a/Ablock5.xlsx
+++ b/Ablock5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="13920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
   <si>
     <t>trialtype</t>
   </si>
@@ -51,37 +51,43 @@
     <t>feedbackAllowed</t>
   </si>
   <si>
-    <t>Die</t>
-  </si>
-  <si>
-    <t>Funeral</t>
-  </si>
-  <si>
-    <t>Lifeless</t>
-  </si>
-  <si>
-    <t>Deceased</t>
-  </si>
-  <si>
-    <t>Alive</t>
-  </si>
-  <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>Thrive</t>
-  </si>
-  <si>
-    <t>Survive</t>
-  </si>
-  <si>
-    <t>Breathing</t>
-  </si>
-  <si>
-    <t>Suicide</t>
-  </si>
-  <si>
     <t>stimulus</t>
+  </si>
+  <si>
+    <t>imageStimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>flower1.jpg</t>
+  </si>
+  <si>
+    <t>flower2.jpg</t>
+  </si>
+  <si>
+    <t>flower3.jpg</t>
+  </si>
+  <si>
+    <t>flower4.jpg</t>
+  </si>
+  <si>
+    <t>flower5.jpg</t>
+  </si>
+  <si>
+    <t>insect1.jpg</t>
+  </si>
+  <si>
+    <t>insect2.jpg</t>
+  </si>
+  <si>
+    <t>insect3.jpg</t>
+  </si>
+  <si>
+    <t>insect4.jpg</t>
+  </si>
+  <si>
+    <t>insect5.jpg</t>
   </si>
 </sst>
 </file>
@@ -127,12 +133,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BD3A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,7 +156,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -334,18 +346,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -440,6 +470,12 @@
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -534,6 +570,12 @@
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -863,302 +905,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="2"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="D22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
